--- a/src/main/resources/excel/DATA_CLIENTE_WAPPE_MOVISTAR.xlsx
+++ b/src/main/resources/excel/DATA_CLIENTE_WAPPE_MOVISTAR.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FramerworkTsoft\Wappe\Web_automation_Wappe_ClienteMovistar\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC0B30F-2EDC-4435-AB0F-77B7D53296CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28BA566-6E70-4E8D-9464-AEBB4F4631F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A2F275B-5F9E-4279-8630-EB21E5B75D93}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2A2F275B-5F9E-4279-8630-EB21E5B75D93}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Datos" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Productos" sheetId="4" r:id="rId2"/>
+    <sheet name="Datos" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>TC1</t>
   </si>
@@ -109,17 +110,26 @@
     <t>74542683</t>
   </si>
   <si>
-    <t>Lima2020.</t>
-  </si>
-  <si>
     <t>https://wappe.movistar.com.pe/#/cliente</t>
+  </si>
+  <si>
+    <t>Wappe2020.</t>
+  </si>
+  <si>
+    <t>Codproducto</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>650001818</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +151,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF50535A"/>
+      <name val="TelefonicaWeb-Regular"/>
     </font>
   </fonts>
   <fills count="3">
@@ -185,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -209,6 +230,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -526,11 +551,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E498FDF-C698-4C33-AB0D-10A8071429DC}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="40.21875" style="4" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.77734375" style="4" customWidth="1" collapsed="1"/>
@@ -538,7 +563,7 @@
     <col min="5" max="5" width="17.88671875" style="4" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,10 +580,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
@@ -566,11 +591,11 @@
       <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -582,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
@@ -611,6 +636,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD34852A-0049-4F03-AE70-33DB1BAD5F53}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD572A2-87EF-411F-8B36-6BFC13510EDD}">
   <dimension ref="C5:G14"/>
   <sheetViews>
@@ -618,19 +675,19 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="23.77734375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="29" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7">
       <c r="E5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -641,7 +698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -652,7 +709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -663,7 +720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -671,7 +728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7">
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -679,22 +736,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7">
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7">
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7">
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7">
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
